--- a/extra/subwoofer.xlsx
+++ b/extra/subwoofer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Documents\uni\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E5C0DC-10DE-44D1-ABC1-F055F7C7F585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AEFF55-BC70-40ED-A97F-14270A257EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF9E23CC-759D-47BB-812C-01382CA3847E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>pezzo</t>
   </si>
@@ -63,6 +63,30 @@
   </si>
   <si>
     <t>totale</t>
+  </si>
+  <si>
+    <t>potenza in uscita dall'amplificatore:</t>
+  </si>
+  <si>
+    <t>315w</t>
+  </si>
+  <si>
+    <t>rms driver:</t>
+  </si>
+  <si>
+    <t>120w</t>
+  </si>
+  <si>
+    <t>250w</t>
+  </si>
+  <si>
+    <t>grs 12sw-4 HE subwoofer</t>
+  </si>
+  <si>
+    <t>alimentatore 36 8,333A</t>
+  </si>
+  <si>
+    <t>216w</t>
   </si>
 </sst>
 </file>
@@ -444,85 +468,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343A81F3-53E1-4E98-AF87-3A93586C4491}">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5546875" customWidth="1"/>
     <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>41.95</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3">
+        <v>83.95</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>5.98</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>43.57</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3">
+        <v>43.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>30.53</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3">
+        <v>30.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <f>SUM(B3:B9)</f>
         <v>129.47000000000003</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
+        <f>SUM(H3:H9)</f>
+        <v>171.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>41.95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43.57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>26.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3">
+        <f>SUM(B14:B20)</f>
+        <v>125.08000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/extra/subwoofer.xlsx
+++ b/extra/subwoofer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Documents\uni\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AEFF55-BC70-40ED-A97F-14270A257EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2FA724-BC2E-48AE-8CFC-DD0F3C308E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF9E23CC-759D-47BB-812C-01382CA3847E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF9E23CC-759D-47BB-812C-01382CA3847E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -112,12 +112,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -148,11 +154,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -471,56 +479,56 @@
   <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>41.95</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -529,14 +537,14 @@
       <c r="H3" s="3">
         <v>83.95</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -550,7 +558,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -564,7 +572,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -578,7 +586,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -592,7 +600,7 @@
         <v>43.57</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -606,21 +614,21 @@
         <v>30.53</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <f>SUM(B3:B9)</f>
         <v>129.47000000000003</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="3">
@@ -628,35 +636,35 @@
         <v>171.47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="3">
         <v>41.95</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -664,7 +672,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -672,7 +680,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -680,7 +688,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -688,7 +696,7 @@
         <v>43.57</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -696,12 +704,12 @@
         <v>26.14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="3">
